--- a/Data/6. Tax Havens (Manual).xlsx
+++ b/Data/6. Tax Havens (Manual).xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Population table'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tax havens'!$A$1:$Q$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tax havens'!$A$1:$K$54</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -255,9 +255,6 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>ABW</t>
   </si>
   <si>
@@ -1666,13 +1663,16 @@
   <si>
     <t>Included?
 (3 or more)</t>
+  </si>
+  <si>
+    <t>Totals (of 56)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,6 +1726,14 @@
       <color rgb="FF000000"/>
       <name val="Lucida Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1857,12 +1865,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1949,6 +1954,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2253,13 +2265,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -2267,2511 +2279,2307 @@
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="11" width="4.85546875" customWidth="1"/>
-    <col min="14" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="5" t="str">
         <f>VLOOKUP(A2,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>AND</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22" t="str">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21" t="str">
         <f t="shared" ref="H2:H33" si="0">SUM(C2:G2)&amp;" of " &amp;COUNT(C2:G2)</f>
         <v>5 of 5</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <f t="shared" ref="I2:I33" si="1">IF(VALUE(LEFT(H2,1))&gt;=3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="35">
         <f>IFERROR(VLOOKUP($A2,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <f>IFERROR(VLOOKUP($A2,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="str">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="str">
         <f>VLOOKUP(A3,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>AIA</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22" t="str">
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <f>IFERROR(VLOOKUP($A3,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <f>IFERROR(VLOOKUP($A3,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="7" t="str">
         <f>VLOOKUP(A4,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>ATG</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22" t="str">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f>IFERROR(VLOOKUP($A4,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f>IFERROR(VLOOKUP($A4,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="7" t="str">
         <f>VLOOKUP(A5,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>ABW</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22" t="str">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <f>IFERROR(VLOOKUP($A5,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <f>IFERROR(VLOOKUP($A5,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="7" t="str">
         <f>VLOOKUP(A6,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>BHS</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22" t="str">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <f>IFERROR(VLOOKUP($A6,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <f>IFERROR(VLOOKUP($A6,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="7" t="str">
         <f>VLOOKUP(A7,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>BHR</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22" t="str">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <f>IFERROR(VLOOKUP($A7,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <f>IFERROR(VLOOKUP($A7,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="7" t="str">
         <f>VLOOKUP(A8,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>BRB</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="str">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f>IFERROR(VLOOKUP($A8,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <f>IFERROR(VLOOKUP($A8,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="7" t="str">
         <f>VLOOKUP(A9,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>BLZ</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="22" t="str">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f>IFERROR(VLOOKUP($A9,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <f>IFERROR(VLOOKUP($A9,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="7" t="str">
         <f>VLOOKUP(A10,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>BMU</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22" t="str">
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f>IFERROR(VLOOKUP($A10,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <f>IFERROR(VLOOKUP($A10,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="7" t="str">
         <f>VLOOKUP(A11,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>CYM</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22" t="str">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f>IFERROR(VLOOKUP($A11,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <f>IFERROR(VLOOKUP($A11,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="7" t="str">
         <f>VLOOKUP(A12,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>COK</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22" t="str">
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <f>IFERROR(VLOOKUP($A12,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <f>IFERROR(VLOOKUP($A12,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="7" t="str">
         <f>VLOOKUP(A13,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>CRI</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="22" t="str">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>3 of 5</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <f>IFERROR(VLOOKUP($A13,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <f>IFERROR(VLOOKUP($A13,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="7" t="str">
         <f>VLOOKUP(A14,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>CYP</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22" t="str">
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <f>IFERROR(VLOOKUP($A14,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <f>IFERROR(VLOOKUP($A14,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="7" t="str">
         <f>VLOOKUP(A15,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>DMA</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="22" t="str">
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <f>IFERROR(VLOOKUP($A15,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <f>IFERROR(VLOOKUP($A15,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="7" t="str">
         <f>VLOOKUP(A16,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>GIB</v>
       </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22" t="str">
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <f>IFERROR(VLOOKUP($A16,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <f>IFERROR(VLOOKUP($A16,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="7" t="str">
         <f>VLOOKUP(A17,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>GRD</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22" t="str">
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <f>IFERROR(VLOOKUP($A17,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <f>IFERROR(VLOOKUP($A17,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="7" t="str">
         <f>VLOOKUP(A18,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>GGY</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22" t="str">
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <f>IFERROR(VLOOKUP($A18,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="35">
         <f>IFERROR(VLOOKUP($A18,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="7" t="str">
         <f>VLOOKUP(A19,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>HKG</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22" t="str">
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <f>IFERROR(VLOOKUP($A19,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <f>IFERROR(VLOOKUP($A19,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="7" t="str">
         <f>VLOOKUP(A20,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>IRL</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22" t="str">
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>3 of 5</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <f>IFERROR(VLOOKUP($A20,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <f>IFERROR(VLOOKUP($A20,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="7" t="str">
         <f>VLOOKUP(A21,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>IMN</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22" t="str">
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <f>IFERROR(VLOOKUP($A21,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <f>IFERROR(VLOOKUP($A21,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="7" t="str">
         <f>VLOOKUP(A22,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>JEY</v>
       </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22" t="str">
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <f>IFERROR(VLOOKUP($A22,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <f>IFERROR(VLOOKUP($A22,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="7" t="str">
         <f>VLOOKUP(A23,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>JOR</v>
       </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22" t="str">
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>2 of 5</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="36" t="str">
+      <c r="J23" s="35" t="str">
         <f>IFERROR(VLOOKUP($A23,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K23" s="36" t="str">
+      <c r="K23" s="35" t="str">
         <f>IFERROR(VLOOKUP($A23,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="7" t="str">
         <f>VLOOKUP(A24,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>LBN</v>
       </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="22" t="str">
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <f>IFERROR(VLOOKUP($A24,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <f>IFERROR(VLOOKUP($A24,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="7" t="str">
         <f>VLOOKUP(A25,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>LBR</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22" t="str">
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <f>IFERROR(VLOOKUP($A25,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="35">
         <f>IFERROR(VLOOKUP($A25,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="7" t="str">
         <f>VLOOKUP(A26,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>LIE</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22" t="str">
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="35">
         <f>IFERROR(VLOOKUP($A26,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="35">
         <f>IFERROR(VLOOKUP($A26,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="8" t="str">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="str">
         <f>VLOOKUP(A27,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>LUX</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22" t="str">
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>3 of 5</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <f>IFERROR(VLOOKUP($A27,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="35">
         <f>IFERROR(VLOOKUP($A27,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B28" s="7" t="str">
         <f>VLOOKUP(A28,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MAC</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22" t="str">
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <f>IFERROR(VLOOKUP($A28,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="35">
         <f>IFERROR(VLOOKUP($A28,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="B29" s="8" t="str">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="7" t="str">
         <f>VLOOKUP(A29,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MYS</v>
       </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22" t="str">
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>1 of 5</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="36" t="str">
+      <c r="J29" s="35" t="str">
         <f>IFERROR(VLOOKUP($A29,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K29" s="36" t="str">
+      <c r="K29" s="35" t="str">
         <f>IFERROR(VLOOKUP($A29,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="7" t="str">
         <f>VLOOKUP(A30,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MDV</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22" t="str">
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="35">
         <f>IFERROR(VLOOKUP($A30,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="35">
         <f>IFERROR(VLOOKUP($A30,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="7" t="str">
         <f>VLOOKUP(A31,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MLT</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="22" t="str">
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="35">
         <f>IFERROR(VLOOKUP($A31,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <f>IFERROR(VLOOKUP($A31,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="7" t="str">
         <f>VLOOKUP(A32,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MHL</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="14">
-        <v>1</v>
-      </c>
-      <c r="H32" s="22" t="str">
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5 of 5</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="35">
         <f>IFERROR(VLOOKUP($A32,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="35">
         <f>IFERROR(VLOOKUP($A32,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="7" t="str">
         <f>VLOOKUP(A33,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MUS</v>
       </c>
-      <c r="C33" s="12">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14">
-        <v>1</v>
-      </c>
-      <c r="H33" s="22" t="str">
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4 of 5</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="35">
         <f>IFERROR(VLOOKUP($A33,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <f>IFERROR(VLOOKUP($A33,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="7" t="str">
         <f>VLOOKUP(A34,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MCO</v>
       </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-      <c r="G34" s="14">
-        <v>1</v>
-      </c>
-      <c r="H34" s="22" t="str">
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="21" t="str">
         <f t="shared" ref="H34:H54" si="2">SUM(C34:G34)&amp;" of " &amp;COUNT(C34:G34)</f>
         <v>5 of 5</v>
       </c>
-      <c r="I34" s="15">
-        <f t="shared" ref="I34:I65" si="3">IF(VALUE(LEFT(H34,1))&gt;=3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="36" t="str">
+      <c r="I34" s="14">
+        <f t="shared" ref="I34:I54" si="3">IF(VALUE(LEFT(H34,1))&gt;=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="35" t="str">
         <f>IFERROR(VLOOKUP($A34,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K34" s="36" t="str">
+      <c r="K34" s="35" t="str">
         <f>IFERROR(VLOOKUP($A34,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="7" t="str">
         <f>VLOOKUP(A35,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>MSR</v>
       </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13">
-        <v>1</v>
-      </c>
-      <c r="G35" s="14">
-        <v>1</v>
-      </c>
-      <c r="H35" s="22" t="str">
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="35">
         <f>IFERROR(VLOOKUP($A35,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="35">
         <f>IFERROR(VLOOKUP($A35,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="7" t="str">
         <f>VLOOKUP(A36,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>NRU</v>
       </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14">
-        <v>1</v>
-      </c>
-      <c r="H36" s="22" t="str">
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="21" t="str">
         <f t="shared" si="2"/>
         <v>3 of 5</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="35">
         <f>IFERROR(VLOOKUP($A36,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="35">
         <f>IFERROR(VLOOKUP($A36,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="7" t="str">
         <f>VLOOKUP(A37,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>ANT</v>
       </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13">
-        <v>1</v>
-      </c>
-      <c r="G37" s="14">
-        <v>1</v>
-      </c>
-      <c r="H37" s="22" t="str">
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <f>IFERROR(VLOOKUP($A37,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="35">
         <f>IFERROR(VLOOKUP($A37,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="7" t="str">
         <f>VLOOKUP(A38,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>NIU</v>
       </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
-        <v>1</v>
-      </c>
-      <c r="G38" s="14">
-        <v>1</v>
-      </c>
-      <c r="H38" s="22" t="str">
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="21" t="str">
         <f t="shared" si="2"/>
         <v>3 of 5</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <f>IFERROR(VLOOKUP($A38,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="35">
         <f>IFERROR(VLOOKUP($A38,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B39" s="8" t="str">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B39" s="7" t="str">
         <f>VLOOKUP(A39,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>PLW</v>
       </c>
-      <c r="C39" s="12">
-        <v>0</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13">
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14">
-        <v>1</v>
-      </c>
-      <c r="H39" s="22" t="str">
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="21" t="str">
         <f t="shared" si="2"/>
         <v>1 of 5</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="36" t="str">
+      <c r="J39" s="35" t="str">
         <f>IFERROR(VLOOKUP($A39,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K39" s="36" t="str">
+      <c r="K39" s="35" t="str">
         <f>IFERROR(VLOOKUP($A39,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="7" t="str">
         <f>VLOOKUP(A40,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>PAN</v>
       </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14">
-        <v>1</v>
-      </c>
-      <c r="H40" s="22" t="str">
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="35">
         <f>IFERROR(VLOOKUP($A40,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="35">
         <f>IFERROR(VLOOKUP($A40,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="7" t="str">
         <f>VLOOKUP(A41,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>KNA</v>
       </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13">
-        <v>1</v>
-      </c>
-      <c r="G41" s="14">
-        <v>1</v>
-      </c>
-      <c r="H41" s="22" t="str">
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="35">
         <f>IFERROR(VLOOKUP($A41,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <f>IFERROR(VLOOKUP($A41,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="7" t="str">
         <f>VLOOKUP(A42,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>LCA</v>
       </c>
-      <c r="C42" s="12">
-        <v>1</v>
-      </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1</v>
-      </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-      <c r="G42" s="14">
-        <v>1</v>
-      </c>
-      <c r="H42" s="22" t="str">
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="35">
         <f>IFERROR(VLOOKUP($A42,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="35">
         <f>IFERROR(VLOOKUP($A42,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B43" s="7" t="str">
         <f>VLOOKUP(A43,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>VCT</v>
       </c>
-      <c r="C43" s="12">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-      <c r="F43" s="13">
-        <v>1</v>
-      </c>
-      <c r="G43" s="14">
-        <v>1</v>
-      </c>
-      <c r="H43" s="22" t="str">
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="35">
         <f>IFERROR(VLOOKUP($A43,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="35">
         <f>IFERROR(VLOOKUP($A43,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="7" t="str">
         <f>VLOOKUP(A44,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>WSM</v>
       </c>
-      <c r="C44" s="12">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13">
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
-        <v>1</v>
-      </c>
-      <c r="G44" s="14">
-        <v>1</v>
-      </c>
-      <c r="H44" s="22" t="str">
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" s="21" t="str">
         <f t="shared" si="2"/>
         <v>3 of 5</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="35">
         <f>IFERROR(VLOOKUP($A44,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="35">
         <f>IFERROR(VLOOKUP($A44,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B45" s="7" t="str">
         <f>VLOOKUP(A45,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>SMR</v>
       </c>
-      <c r="C45" s="12">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
-        <v>1</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22" t="str">
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="21" t="str">
         <f t="shared" si="2"/>
         <v>2 of 5</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J45" s="36" t="str">
+      <c r="J45" s="35" t="str">
         <f>IFERROR(VLOOKUP($A45,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K45" s="36" t="str">
+      <c r="K45" s="35" t="str">
         <f>IFERROR(VLOOKUP($A45,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="7" t="str">
         <f>VLOOKUP(A46,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>SYC</v>
       </c>
-      <c r="C46" s="12">
-        <v>0</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <v>1</v>
-      </c>
-      <c r="G46" s="14">
-        <v>1</v>
-      </c>
-      <c r="H46" s="22" t="str">
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="H46" s="21" t="str">
         <f t="shared" si="2"/>
         <v>3 of 5</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="35">
         <f>IFERROR(VLOOKUP($A46,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="35">
         <f>IFERROR(VLOOKUP($A46,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="7" t="str">
         <f>VLOOKUP(A47,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>SGP</v>
       </c>
-      <c r="C47" s="12">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0</v>
-      </c>
-      <c r="E47" s="13">
-        <v>1</v>
-      </c>
-      <c r="F47" s="13">
-        <v>1</v>
-      </c>
-      <c r="G47" s="14">
-        <v>1</v>
-      </c>
-      <c r="H47" s="22" t="str">
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="21" t="str">
         <f t="shared" si="2"/>
         <v>4 of 5</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="35">
         <f>IFERROR(VLOOKUP($A47,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="35">
         <f>IFERROR(VLOOKUP($A47,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B48" s="7" t="str">
         <f>VLOOKUP(A48,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>CHE</v>
       </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13">
-        <v>1</v>
-      </c>
-      <c r="G48" s="14">
-        <v>1</v>
-      </c>
-      <c r="H48" s="22" t="str">
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1</v>
+      </c>
+      <c r="H48" s="21" t="str">
         <f t="shared" si="2"/>
         <v>4 of 5</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="35">
         <f>IFERROR(VLOOKUP($A48,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="35">
         <f>IFERROR(VLOOKUP($A48,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B49" s="7" t="str">
         <f>VLOOKUP(A49,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>TON</v>
       </c>
-      <c r="C49" s="12">
-        <v>0</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
-        <v>1</v>
-      </c>
-      <c r="G49" s="14">
-        <v>0</v>
-      </c>
-      <c r="H49" s="22" t="str">
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="21" t="str">
         <f t="shared" si="2"/>
         <v>2 of 5</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J49" s="36" t="str">
+      <c r="J49" s="35" t="str">
         <f>IFERROR(VLOOKUP($A49,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K49" s="36" t="str">
+      <c r="K49" s="35" t="str">
         <f>IFERROR(VLOOKUP($A49,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B50" s="7" t="str">
         <f>VLOOKUP(A50,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>TCA</v>
       </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13">
-        <v>1</v>
-      </c>
-      <c r="F50" s="13">
-        <v>1</v>
-      </c>
-      <c r="G50" s="14">
-        <v>1</v>
-      </c>
-      <c r="H50" s="22" t="str">
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="35">
         <f>IFERROR(VLOOKUP($A50,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="35">
         <f>IFERROR(VLOOKUP($A50,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="8" t="str">
+      <c r="B51" s="7" t="str">
         <f>VLOOKUP(A51,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>URY</v>
       </c>
-      <c r="C51" s="12">
-        <v>0</v>
-      </c>
-      <c r="D51" s="13">
-        <v>0</v>
-      </c>
-      <c r="E51" s="13">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0</v>
-      </c>
-      <c r="G51" s="14">
-        <v>0</v>
-      </c>
-      <c r="H51" s="22" t="str">
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="21" t="str">
         <f t="shared" si="2"/>
         <v>1 of 5</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J51" s="36" t="str">
+      <c r="J51" s="35" t="str">
         <f>IFERROR(VLOOKUP($A51,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K51" s="36" t="str">
+      <c r="K51" s="35" t="str">
         <f>IFERROR(VLOOKUP($A51,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="7" t="str">
         <f>VLOOKUP(A52,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>VUT</v>
       </c>
-      <c r="C52" s="12">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1</v>
-      </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="14">
-        <v>1</v>
-      </c>
-      <c r="H52" s="22" t="str">
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13">
+        <v>1</v>
+      </c>
+      <c r="H52" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="35">
         <f>IFERROR(VLOOKUP($A52,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="35">
         <f>IFERROR(VLOOKUP($A52,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B53" s="8" t="str">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B53" s="7" t="str">
         <f>VLOOKUP(A53,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>VGB</v>
       </c>
-      <c r="C53" s="12">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-      <c r="G53" s="14">
-        <v>1</v>
-      </c>
-      <c r="H53" s="22" t="str">
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+      <c r="H53" s="21" t="str">
         <f t="shared" si="2"/>
         <v>5 of 5</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <f>IFERROR(VLOOKUP($A53,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="35">
         <f>IFERROR(VLOOKUP($A53,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="B54" s="17" t="str">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54" s="16" t="str">
         <f>VLOOKUP(A54,ISO!$A$1:$B$246,2,FALSE)</f>
         <v>VIR</v>
       </c>
-      <c r="C54" s="18">
-        <v>0</v>
-      </c>
-      <c r="D54" s="19">
-        <v>1</v>
-      </c>
-      <c r="E54" s="19">
-        <v>0</v>
-      </c>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="20">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23" t="str">
+      <c r="C54" s="17">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22" t="str">
         <f t="shared" si="2"/>
         <v>2 of 5</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J54" s="19" t="str">
+      <c r="J54" s="18" t="str">
         <f>IFERROR(VLOOKUP($A54,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K54" s="19" t="str">
+      <c r="K54" s="18" t="str">
         <f>IFERROR(VLOOKUP($A54,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="25"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="27"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28">
+        <v>1</v>
+      </c>
+      <c r="J57" s="14">
+        <f>IFERROR(VLOOKUP($A57,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K57" s="14">
+        <f>IFERROR(VLOOKUP($A57,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25">
+        <v>1</v>
+      </c>
+      <c r="J58" s="14">
+        <f>IFERROR(VLOOKUP($A58,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K58" s="14">
+        <f>IFERROR(VLOOKUP($A58,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29">
-        <v>1</v>
-      </c>
-      <c r="J57" s="15">
-        <f>IFERROR(VLOOKUP($A57,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="15">
-        <f>IFERROR(VLOOKUP($A57,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="26">
-        <v>1</v>
-      </c>
-      <c r="J58" s="15">
-        <f>IFERROR(VLOOKUP($A58,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K58" s="15">
-        <f>IFERROR(VLOOKUP($A58,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="B59" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="21">
-        <v>1</v>
-      </c>
-      <c r="J59" s="21">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="20">
+        <v>1</v>
+      </c>
+      <c r="J59" s="20">
         <f>IFERROR(VLOOKUP($A59,'Population table'!$B$2:$E$49,3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="20">
         <f>IFERROR(VLOOKUP($A59,'Population table'!$B$2:$E$49,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="I60">
+        <f>SUM(I57:I59,I2:I54)</f>
+        <v>49</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:K60" si="4">SUM(J57:J59,J2:J54)</f>
+        <v>34</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q54"/>
+  <autoFilter ref="A1:K54"/>
+  <mergeCells count="2">
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A56:K56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4796,23 +4604,23 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,23 +4628,23 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4652,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,55 +4660,55 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,79 +4716,79 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,31 +4804,31 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,23 +4844,23 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,63 +4868,63 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,55 +4932,55 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,31 +4988,31 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,23 +5020,23 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5044,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,31 +5052,31 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5276,159 +5084,159 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,15 +5244,15 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,55 +5260,55 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,47 +5316,47 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,55 +5364,55 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,23 +5420,23 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,55 +5444,55 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5500,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,55 +5508,55 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,31 +5564,31 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5596,7 @@
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -5796,15 +5604,15 @@
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5620,7 @@
         <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,31 +5628,31 @@
         <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,15 +5660,15 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,23 +5676,23 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,23 +5700,23 @@
         <v>48</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,15 +5724,15 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,23 +5740,23 @@
         <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,55 +5764,55 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B149" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,15 +5820,15 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,79 +5836,79 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B160" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,31 +5916,31 @@
         <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,31 +5948,31 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B172" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,167 +5980,167 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B176" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B178" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B180" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B188" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B189" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B192" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B193" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,55 +6148,55 @@
         <v>24</v>
       </c>
       <c r="B194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B195" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B198" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B200" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,79 +6204,79 @@
         <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B204" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B205" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B206" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B207" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B209" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,15 +6284,15 @@
         <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,63 +6300,63 @@
         <v>42</v>
       </c>
       <c r="B213" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B214" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B216" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B217" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B218" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B220" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,79 +6364,79 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B222" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B223" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B224" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B226" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B227" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B228" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B229" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B230" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,31 +6444,31 @@
         <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B233" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B234" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,39 +6476,39 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B236" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B237" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,15 +6516,15 @@
         <v>30</v>
       </c>
       <c r="B240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,39 +6532,39 @@
         <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6768,27 +6576,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" t="s">
         <v>496</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>497</v>
       </c>
-      <c r="C1" t="s">
-        <v>498</v>
-      </c>
       <c r="D1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" t="s">
         <v>516</v>
-      </c>
-      <c r="E1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7984,29 +7792,29 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B1" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>514</v>
-      </c>
       <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
         <v>511</v>
       </c>
-      <c r="E1" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <v>45</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <v>8.0684651200000008</v>
       </c>
       <c r="D2">
@@ -8017,13 +7825,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>20</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>7.1779561899999997</v>
       </c>
       <c r="D3">
@@ -8034,13 +7842,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>43</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>5.3274910200000001</v>
       </c>
       <c r="D4">
@@ -8051,13 +7859,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>24</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>5.0528824400000003</v>
       </c>
       <c r="D5">
@@ -8068,13 +7876,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>13</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>4.7589916099999998</v>
       </c>
       <c r="D6">
@@ -8085,13 +7893,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>21</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>4.5831299100000003</v>
       </c>
       <c r="D7">
@@ -8102,13 +7910,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>25</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>4.2382675799999996</v>
       </c>
       <c r="D8">
@@ -8119,13 +7927,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>37</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>3.83400885</v>
       </c>
       <c r="D9">
@@ -8136,13 +7944,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>1.3146934800000001</v>
       </c>
       <c r="D10">
@@ -8153,13 +7961,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>32</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>1.2746112599999999</v>
       </c>
       <c r="D11">
@@ -8170,13 +7978,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>15</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>1.14047594</v>
       </c>
       <c r="D12">
@@ -8187,13 +7995,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>28</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>0.56211845999999999</v>
       </c>
       <c r="D13">
@@ -8204,13 +8012,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>27</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32">
         <v>0.54156256999999997</v>
       </c>
       <c r="D14">
@@ -8221,13 +8029,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>30</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>0.42357699999999998</v>
       </c>
       <c r="D15">
@@ -8238,13 +8046,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>0.37602806</v>
       </c>
       <c r="D16">
@@ -8255,13 +8063,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>29</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>0.36590349</v>
       </c>
       <c r="D17">
@@ -8272,13 +8080,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>8</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>0.33456165999999998</v>
       </c>
       <c r="D18">
@@ -8289,13 +8097,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>7</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>0.28296381999999998</v>
       </c>
       <c r="D19">
@@ -8306,13 +8114,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>47</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>0.25147861999999999</v>
       </c>
       <c r="D20">
@@ -8323,13 +8131,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>35</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <v>0.22630653000000001</v>
       </c>
       <c r="D21">
@@ -8340,13 +8148,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>41</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <v>0.18984396000000001</v>
       </c>
       <c r="D22">
@@ -8357,13 +8165,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>39</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <v>0.18127127000000001</v>
       </c>
       <c r="D23">
@@ -8374,13 +8182,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>14</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" s="35">
+      <c r="B24" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="34">
         <v>0.149035</v>
       </c>
       <c r="D24">
@@ -8391,13 +8199,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>40</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>0.10934771</v>
       </c>
       <c r="D25">
@@ -8408,13 +8216,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+      <c r="A26" s="30">
         <v>18</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>0.1057958</v>
       </c>
       <c r="D26">
@@ -8425,13 +8233,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <v>4</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="34">
         <v>0.10285307</v>
       </c>
       <c r="D27">
@@ -8442,13 +8250,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="A28" s="30">
         <v>23</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <v>9.8069000000000003E-2</v>
       </c>
       <c r="D28">
@@ -8459,13 +8267,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="A29" s="30">
         <v>42</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="34">
         <v>8.9956659999999994E-2</v>
       </c>
       <c r="D29">
@@ -8476,13 +8284,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
+      <c r="A30" s="30">
         <v>3</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <v>8.9633180000000007E-2</v>
       </c>
       <c r="D30">
@@ -8493,13 +8301,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <v>22</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>8.8194999999999996E-2</v>
       </c>
       <c r="D31">
@@ -8510,13 +8318,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
-        <v>1</v>
-      </c>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="30">
+        <v>1</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <v>8.3620829999999993E-2</v>
       </c>
       <c r="D32">
@@ -8527,13 +8335,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31">
+      <c r="A33" s="30">
         <v>16</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <v>7.1982039999999997E-2</v>
       </c>
       <c r="D33">
@@ -8544,13 +8352,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
+      <c r="A34" s="30">
         <v>19</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="32">
         <v>6.6296999999999995E-2</v>
       </c>
       <c r="D34">
@@ -8561,13 +8369,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+      <c r="A35" s="30">
         <v>9</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <v>6.5066789999999999E-2</v>
       </c>
       <c r="D35">
@@ -8578,13 +8386,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="A36" s="30">
         <v>11</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="32">
         <v>5.8183940000000003E-2</v>
       </c>
       <c r="D36">
@@ -8595,13 +8403,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="A37" s="30">
         <v>38</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="34">
         <v>5.4023580000000002E-2</v>
       </c>
       <c r="D37">
@@ -8612,13 +8420,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="A38" s="30">
         <v>31</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="32">
         <v>5.2697609999999999E-2</v>
       </c>
       <c r="D38">
@@ -8629,13 +8437,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31">
+      <c r="A39" s="30">
         <v>44</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="C39" s="35">
+      <c r="B39" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C39" s="34">
         <v>4.1486000000000002E-2</v>
       </c>
       <c r="D39">
@@ -8646,13 +8454,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31">
+      <c r="A40" s="30">
         <v>26</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="34">
         <v>3.7936999999999999E-2</v>
       </c>
       <c r="D40">
@@ -8663,13 +8471,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31">
+      <c r="A41" s="30">
         <v>46</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="34">
         <v>3.2729080000000001E-2</v>
       </c>
       <c r="D41">
@@ -8680,13 +8488,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31">
+      <c r="A42" s="30">
         <v>17</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="32">
         <v>2.8911180000000002E-2</v>
       </c>
       <c r="D42">
@@ -8697,13 +8505,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
+      <c r="A43" s="30">
         <v>48</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="C43" s="35">
+      <c r="B43" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C43" s="34">
         <v>2.3941899999999999E-2</v>
       </c>
       <c r="D43">
@@ -8714,13 +8522,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31">
+      <c r="A44" s="30">
         <v>10</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" s="35">
+      <c r="B44" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C44" s="34">
         <v>1.8905000000000002E-2</v>
       </c>
       <c r="D44">
@@ -8731,13 +8539,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
+      <c r="A45" s="30">
         <v>2</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="35">
+      <c r="B45" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="34">
         <v>1.3967729999999999E-2</v>
       </c>
       <c r="D45">
@@ -8748,13 +8556,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
+      <c r="A46" s="30">
         <v>34</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="34">
         <v>1.3951079999999999E-2</v>
       </c>
       <c r="D46">
@@ -8765,13 +8573,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="A47" s="30">
         <v>12</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="34">
         <v>1.2079380000000001E-2</v>
       </c>
       <c r="D47">
@@ -8782,13 +8590,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
+      <c r="A48" s="30">
         <v>33</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="32">
         <v>4.9722200000000003E-3</v>
       </c>
       <c r="D48">
@@ -8799,13 +8607,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
+      <c r="A49" s="30">
         <v>36</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="34">
         <v>1.6119999999999999E-3</v>
       </c>
       <c r="D49">

--- a/Data/6. Tax Havens (Manual).xlsx
+++ b/Data/6. Tax Havens (Manual).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbjoe\Dropbox\Kugejl\8. semester\Public Economics\Public_Economics\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Tax havens" sheetId="2" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Population table'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tax havens'!$A$1:$K$54</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -26,7 +31,7 @@
     <author>Rasmus Bjørn</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1954,13 +1959,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1970,6 +1975,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2018,7 +2026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,9 +2059,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2086,6 +2111,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2267,7 +2309,7 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4450,19 +4492,19 @@
       <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -4540,7 +4582,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="36" t="s">
         <v>518</v>
       </c>
       <c r="I60">
@@ -4557,19 +4599,19 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
